--- a/biology/Zoologie/Dolomedes_alexandri/Dolomedes_alexandri.xlsx
+++ b/biology/Zoologie/Dolomedes_alexandri/Dolomedes_alexandri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes alexandri est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes alexandri est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Territoire de la capitale australienne et au Victoria[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Territoire de la capitale australienne et au Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 14,64 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 14,64 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Roy[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alexander Roy.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
